--- a/main/results/Generations_Scores.xlsx
+++ b/main/results/Generations_Scores.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Generación</t>
   </si>
   <si>
     <t>Puntaje</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Entidades construidas</t>
   </si>
 </sst>
 </file>
@@ -351,106 +357,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8404999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.2035947712418301</v>
+      </c>
+      <c r="C2">
+        <v>623</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4956666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.4218954248366013</v>
+      </c>
+      <c r="C3">
+        <v>475</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4353333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.2957516339869282</v>
+      </c>
+      <c r="C4">
+        <v>633</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5224444444444444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.2709150326797386</v>
+      </c>
+      <c r="C5">
+        <v>829</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.3516339869281046</v>
+      </c>
+      <c r="C6">
+        <v>532</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4391111111111111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.1895424836601307</v>
+      </c>
+      <c r="C7">
+        <v>580</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4894166666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.4842528735632184</v>
+      </c>
+      <c r="C8">
+        <v>631</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.60725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.3577777777777778</v>
+      </c>
+      <c r="C9">
+        <v>522</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.7347777777777778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.4983141762452107</v>
+      </c>
+      <c r="C10">
+        <v>414</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.4362222222222222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.3677777777777778</v>
+      </c>
+      <c r="C11">
+        <v>551</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.743</v>
+        <v>0.4304597701149425</v>
+      </c>
+      <c r="C12">
+        <v>475</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
